--- a/Output/AllModels_otherCovariates.xlsx
+++ b/Output/AllModels_otherCovariates.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -50,1279 +50,1204 @@
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">41.25***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[33.68, 51.46]</t>
+    <t xml:space="preserve">38.50***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[33.71, 44.19]</t>
   </si>
   <si>
     <t xml:space="preserve">1.000</t>
   </si>
   <si>
-    <t xml:space="preserve">117.75***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[97.89, 140.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.31, 3.95]</t>
+    <t xml:space="preserve">112.69***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[101.42, 125.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.44, 3.88]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.16,   0.61]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.20,  0.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.72,     1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.70,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.99,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.02, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.83,     1.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.82,   1.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.82,  1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.89,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   1.14,     2.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.00,   4.44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.15, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.70,     2.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.60,   4.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.97,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.97,     1.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.02,   1.76]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.96,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.72,     1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.61,   1.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,  1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.91,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.75,     2.89]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.74,   3.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.25,  1.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.04,   1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.02, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.51,     1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.49,   1.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily support received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is a Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JITAI received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.70,  1.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.79,   1.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.35, 0.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.44,     3.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.63,   7.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.75,  1.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.73,   1.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.27, 0.87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.46,     5.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.53,   7.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  1.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.77,   1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.81, 0.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   1.13,    10.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.45**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.52, 170.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.65,  1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.73,   1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.89, 0.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.35,     3.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23,  22.98]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.72,  1.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.59,   1.48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.57, 1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.36,     9.61]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.16,   9.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.65,  1.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.73,   1.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.62, 1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.02,     1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01,   0.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean support received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.04,  1.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.98,   1.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.01, 0.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.41,     1.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.39,   1.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.89,  1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.92,   1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.25, 0.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.57,     1.44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48,   1.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference study group 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference study group 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.40,  1.85]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.19,  1.54]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  1.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.05,  2.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.72,  1.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.07,  1.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.64,  1.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 8.27, 12.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily support received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Is a Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu JITAI received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.61,  2.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.55,  2.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pressure experienced</t>
   </si>
   <si>
     <t xml:space="preserve">0.43*</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.19,   0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  1.68]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.97,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,     1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.69,   1.03]</t>
+    <t xml:space="preserve">[ 0.20,  0.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.25,  1.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.26,  2.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.49,  4.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean support received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.97,  1.53]</t>
   </si>
   <si>
     <t xml:space="preserve">0.953</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.03, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.83,     1.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.85,   1.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.17,     2.68]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   4.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.69,     2.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.60,   3.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.97,     1.46]</t>
+    <t xml:space="preserve">Hu Mean support provided (partner's view)</t>
   </si>
   <si>
     <t xml:space="preserve">1.29*</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.02,   1.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.71,     1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.60,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,   1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.09, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.69,     3.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,   6.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is a Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.07,  1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,   1.10]</t>
+    <t xml:space="preserve">[ 1.04,  1.64]</t>
   </si>
   <si>
     <t xml:space="preserve">0.988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.07, 0.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.44,     0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.38,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.18, 0.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.77,     2.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.74,   2.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.94,  1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904</t>
+    <t xml:space="preserve">Hu Difference study group 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Difference study group 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 0.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.46, 1.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.72, 1.75]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hurdle Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.52, 0.91]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.08, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
   </si>
   <si>
     <t xml:space="preserve">0.04</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.08, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.40,     1.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.32,   1.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.77,  1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,   1.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.92]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.40,     2.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.58,   6.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.75,  1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598</t>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.14, 0.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.09, 1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.11, 2.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05, 2.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.65]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.62]</t>
   </si>
   <si>
     <t xml:space="preserve">0.26</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.26, 0.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.45,     3.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.51,   7.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.78,  1.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,   1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.82, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.30,     9.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.85**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.44, 169.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  1.27]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.83, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.42,     3.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.26,  23.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.79,  2.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,   1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.61, 0.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.38,     6.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.13,   7.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  2.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,   1.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.48, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.02,     0.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.78,  1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,   1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.68, 0.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.54,     2.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.46,   3.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.97,  1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.78,   1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.16,     0.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12,   1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.36,  1.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.18,  1.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.58,  1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.06,  2.27]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.29,  2.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.47,  2.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.56,  1.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Is a Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.54,  0.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.53,  2.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.53,  2.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.13,  0.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.26,  1.50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  8.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  8.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Difference study group 2</t>
+    <t xml:space="preserve">[0.01, 0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.75]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily pushing experienced)</t>
   </si>
   <si>
     <t xml:space="preserve">0.58</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.30,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Difference study group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.51,  1.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24, 0.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.45, 0.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25, 1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.63, 1.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hurdle Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.68, 1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 0.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.09, 2.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.27]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.33, 1.05]</t>
+    <t xml:space="preserve">[0.31, 0.99]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Hu Daily pushing utilized (partner's view))</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.64]</t>
+    <t xml:space="preserve">[0.01, 0.52]</t>
   </si>
   <si>
     <t xml:space="preserve">Additional Parameters</t>
@@ -1334,7 +1259,7 @@
     <t xml:space="preserve">0.68</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.66, 0.71]</t>
+    <t xml:space="preserve">[0.65, 0.70]</t>
   </si>
   <si>
     <t xml:space="preserve">0.57</t>
@@ -1343,7 +1268,7 @@
     <t xml:space="preserve">[0.56, 0.59]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+    <t xml:space="preserve">[0.93, 0.98]</t>
   </si>
 </sst>
 </file>
@@ -1866,21 +1791,21 @@
         <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1897,210 +1822,210 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>72</v>
@@ -2109,16 +2034,16 @@
         <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>77</v>
@@ -2150,131 +2075,131 @@
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>120</v>
@@ -2325,25 +2250,55 @@
       <c r="A14" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2363,7 +2318,7 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2383,519 +2338,429 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P17" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>255</v>
+        <v>230</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>128</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2909,203 +2774,203 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -3125,13 +2990,13 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -3151,16 +3016,16 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -3177,16 +3042,16 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3203,16 +3068,16 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>307</v>
+        <v>281</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3229,16 +3094,16 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -3255,16 +3120,16 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
+        <v>290</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -3281,7 +3146,7 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3301,11 +3166,17 @@
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3321,7 +3192,7 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3341,7 +3212,7 @@
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3361,17 +3232,11 @@
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>322</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -3387,17 +3252,11 @@
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -3413,17 +3272,11 @@
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -3439,66 +3292,66 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3515,16 +3368,16 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3541,16 +3394,16 @@
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3567,16 +3420,16 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3593,16 +3446,16 @@
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3619,16 +3472,16 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3645,7 +3498,7 @@
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3665,11 +3518,17 @@
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+        <v>323</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3685,11 +3544,17 @@
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3705,17 +3570,11 @@
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>356</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3731,17 +3590,11 @@
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -3757,103 +3610,103 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="P60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3871,253 +3724,253 @@
     </row>
     <row r="62">
       <c r="A62" s="8" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>167</v>
+        <v>351</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="P62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>380</v>
+        <v>228</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="P63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>167</v>
+        <v>351</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="s">
-        <v>320</v>
+        <v>152</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="P64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="8" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>404</v>
+        <v>137</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="P65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="8" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>167</v>
+        <v>349</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="P66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="8" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>385</v>
+        <v>106</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="P67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="8" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4135,13 +3988,13 @@
     </row>
     <row r="69">
       <c r="A69" s="8" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4159,13 +4012,13 @@
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -4183,13 +4036,13 @@
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -4207,13 +4060,13 @@
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4231,13 +4084,13 @@
     </row>
     <row r="73">
       <c r="A73" s="8" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4255,77 +4108,77 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
